--- a/Creacion_DB_Aportes/Planillas_Orig/Libro2-no_dni.xlsx
+++ b/Creacion_DB_Aportes/Planillas_Orig/Libro2-no_dni.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="205">
   <si>
     <t>Apellido</t>
   </si>
@@ -191,6 +191,9 @@
     <t>1156200350</t>
   </si>
   <si>
+    <t>DNI 1000210</t>
+  </si>
+  <si>
     <t>jorge.g.casagrande@gmail.com</t>
   </si>
   <si>
@@ -212,6 +215,9 @@
     <t>01156603734</t>
   </si>
   <si>
+    <t>DNI 1000211</t>
+  </si>
+  <si>
     <t>Carlos.dibrico@gmail.com</t>
   </si>
   <si>
@@ -284,6 +290,9 @@
     <t>1559536712</t>
   </si>
   <si>
+    <t>DNI 1000212</t>
+  </si>
+  <si>
     <t>lgarnelo2001@yahoo.com.ar</t>
   </si>
   <si>
@@ -338,6 +347,9 @@
     <t>1540518964</t>
   </si>
   <si>
+    <t>DNI 1000213</t>
+  </si>
+  <si>
     <t>sergio.gutman@gmail.com</t>
   </si>
   <si>
@@ -404,6 +416,9 @@
     <t>1544448463</t>
   </si>
   <si>
+    <t>DNI 1000214</t>
+  </si>
+  <si>
     <t>ve.lanzi@hotmail.com</t>
   </si>
   <si>
@@ -422,6 +437,9 @@
     <t>1549176503</t>
   </si>
   <si>
+    <t>DNI 1000215</t>
+  </si>
+  <si>
     <t>ana.leonhardt@gmail.com</t>
   </si>
   <si>
@@ -446,6 +464,9 @@
     <t>4711-7980</t>
   </si>
   <si>
+    <t>DNI 1000216</t>
+  </si>
+  <si>
     <t>glopez1707@gmail.com</t>
   </si>
   <si>
@@ -479,6 +500,9 @@
     <t>1566298429</t>
   </si>
   <si>
+    <t>DNI 1000217</t>
+  </si>
+  <si>
     <t>ali_meana@hotmail.com</t>
   </si>
   <si>
@@ -509,6 +533,9 @@
     <t>1531558544</t>
   </si>
   <si>
+    <t>DNI 1000218</t>
+  </si>
+  <si>
     <t>luisarmandorivera@speedy.com.ar</t>
   </si>
   <si>
@@ -539,6 +566,9 @@
     <t>1545642079</t>
   </si>
   <si>
+    <t>DNI 1000219</t>
+  </si>
+  <si>
     <t>jlrodas@gmail.com</t>
   </si>
   <si>
@@ -563,6 +593,9 @@
     <t>1522421067</t>
   </si>
   <si>
+    <t>DNI 1000220</t>
+  </si>
+  <si>
     <t>ceciliarusso@ymail.com</t>
   </si>
   <si>
@@ -591,6 +624,9 @@
   </si>
   <si>
     <t>154 159-9882</t>
+  </si>
+  <si>
+    <t>DNI 1000221</t>
   </si>
   <si>
     <t>ctorresagasti@yahoo.com.ar; clara.torresagasti@mdnicolas.com.ar</t>
@@ -605,11 +641,12 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -631,15 +668,24 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -686,7 +732,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -711,6 +757,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -731,7 +781,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="V17" activeCellId="0" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -907,7 +957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="87.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="87.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -969,9 +1019,11 @@
       <c r="U3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="V3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="W3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="5" t="s">
@@ -981,30 +1033,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>5</v>
@@ -1023,11 +1075,13 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V4" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="W4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X4" s="5"/>
       <c r="Y4" s="5" t="s">
@@ -1039,30 +1093,30 @@
     </row>
     <row r="5" customFormat="false" ht="139.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>4</v>
@@ -1073,7 +1127,7 @@
         <v>53</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>36</v>
@@ -1082,18 +1136,18 @@
         <v>36</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X5" s="5"/>
       <c r="Y5" s="5" t="s">
@@ -1103,34 +1157,34 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="191" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="190.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6" s="4" t="n">
         <v>5</v>
@@ -1138,10 +1192,10 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>36</v>
@@ -1150,18 +1204,20 @@
         <v>37</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="V6" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="W6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="X6" s="5"/>
       <c r="Y6" s="5" t="s">
@@ -1173,30 +1229,30 @@
     </row>
     <row r="7" customFormat="false" ht="191" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K7" s="4" t="n">
         <v>2</v>
@@ -1207,7 +1263,7 @@
         <v>53</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>36</v>
@@ -1216,18 +1272,18 @@
         <v>37</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="5" t="s">
@@ -1237,27 +1293,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="36.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>34</v>
@@ -1268,10 +1324,10 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>36</v>
@@ -1280,18 +1336,20 @@
         <v>37</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="V8" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="W8" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X8" s="5"/>
       <c r="Y8" s="5" t="s">
@@ -1303,30 +1361,30 @@
     </row>
     <row r="9" customFormat="false" ht="36.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K9" s="4" t="n">
         <v>1</v>
@@ -1334,10 +1392,10 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>36</v>
@@ -1346,20 +1404,20 @@
         <v>37</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="X9" s="5"/>
       <c r="Y9" s="5" t="s">
@@ -1371,28 +1429,28 @@
     </row>
     <row r="10" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>4</v>
@@ -1401,7 +1459,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>36</v>
@@ -1410,18 +1468,20 @@
         <v>37</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="V10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="W10" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="X10" s="5"/>
       <c r="Y10" s="5" t="s">
@@ -1431,18 +1491,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="70.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
@@ -1456,7 +1516,7 @@
         <v>33</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>0</v>
@@ -1472,14 +1532,16 @@
         <v>37</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="V11" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="W11" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="X11" s="5"/>
       <c r="Y11" s="5" t="s">
@@ -1489,21 +1551,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="36.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
@@ -1512,7 +1574,7 @@
         <v>33</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12" s="4" t="n">
         <v>0</v>
@@ -1530,18 +1592,20 @@
         <v>37</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="V12" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="W12" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="X12" s="5"/>
       <c r="Y12" s="5" t="s">
@@ -1551,32 +1615,32 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K13" s="4" t="n">
         <v>4</v>
@@ -1584,10 +1648,10 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>36</v>
@@ -1596,18 +1660,20 @@
         <v>37</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="V13" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="W13" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="X13" s="5"/>
       <c r="Y13" s="5" t="s">
@@ -1619,30 +1685,30 @@
     </row>
     <row r="14" customFormat="false" ht="207.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="K14" s="4" t="n">
         <v>4</v>
@@ -1650,10 +1716,10 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>36</v>
@@ -1662,16 +1728,18 @@
         <v>37</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="V14" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="W14" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="X14" s="5"/>
       <c r="Y14" s="5" t="s">
@@ -1681,32 +1749,32 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="207.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="207.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="K15" s="4" t="n">
         <v>4</v>
@@ -1717,7 +1785,7 @@
         <v>53</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>36</v>
@@ -1726,18 +1794,20 @@
         <v>37</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="V15" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="W15" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="X15" s="5"/>
       <c r="Y15" s="5" t="s">
@@ -1747,25 +1817,25 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="2" t="s">
@@ -1784,18 +1854,20 @@
         <v>37</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="V16" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="W16" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="5" t="s">
@@ -1805,30 +1877,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="70.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="70.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K17" s="4" t="n">
         <v>2</v>
@@ -1837,7 +1909,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>36</v>
@@ -1846,18 +1918,20 @@
         <v>36</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="V17" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="W17" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="X17" s="5"/>
       <c r="Y17" s="5" t="s">
